--- a/manuscript/Ch05 Database Design/Examples/primaryKeyTests.xlsx
+++ b/manuscript/Ch05 Database Design/Examples/primaryKeyTests.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4760335bb1ba0970/CockroachDBTDG/cockroachDB-tdg/manuscript/Ch05 Database Design/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A4050F-B501-E040-B2FC-6A5F28A6D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{C0A4050F-B501-E040-B2FC-6A5F28A6D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E80D5A16-5F08-9A45-A257-8E96C07DC10F}"/>
   <bookViews>
-    <workbookView xWindow="29440" yWindow="8640" windowWidth="28040" windowHeight="17440" xr2:uid="{3B02EFF8-44A2-FC41-84BD-D5DFEED018AE}"/>
+    <workbookView xWindow="30380" yWindow="920" windowWidth="32400" windowHeight="25900" activeTab="1" xr2:uid="{3B02EFF8-44A2-FC41-84BD-D5DFEED018AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>1000000 rows inserted into seq_keyed in 2300880 ms</t>
   </si>
@@ -58,6 +59,168 @@
   </si>
   <si>
     <t>999851  rows inserted</t>
+  </si>
+  <si>
+    <t>1000000 rows inserted into int_keyed in 338670 ms</t>
+  </si>
+  <si>
+    <t>1000000  rows inserted</t>
+  </si>
+  <si>
+    <t>1000000 rows inserted into seq_keyed in 2317419 ms</t>
+  </si>
+  <si>
+    <t>1000000 rows inserted into uuid_keyed in 316857 ms</t>
+  </si>
+  <si>
+    <t>1000000 rows inserted into serial_keyed in 329520 ms</t>
+  </si>
+  <si>
+    <t>1000000 rows inserted into hash_keyed in 327513 ms</t>
+  </si>
+  <si>
+    <t>UUID PK</t>
+  </si>
+  <si>
+    <t>Sequential PK</t>
+  </si>
+  <si>
+    <t>Sequential PK sequence generated</t>
+  </si>
+  <si>
+    <t>Serial PK</t>
+  </si>
+  <si>
+    <t>Sequential PK hash sharded</t>
+  </si>
+  <si>
+    <t>3 nodes</t>
+  </si>
+  <si>
+    <t>4 nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CREATE TABLE hash_keyed  (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pk int NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        id int,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        rnumber float,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        rstring STRING,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        PRIMARY KEY (pk) USING HASH WITH BUCKET_COUNT=18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    )</t>
+  </si>
+  <si>
+    <t>100000   0</t>
+  </si>
+  <si>
+    <t>endkey 100000</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into int_keyed in 213008 ms</t>
+  </si>
+  <si>
+    <t>100000  rows inserted</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_keyed in 164246 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into uuid_keyed in 152040 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into serial_keyed in 313875 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into hash_keyed in 293022 ms</t>
+  </si>
+  <si>
+    <t>100000   1000001</t>
+  </si>
+  <si>
+    <t>endkey 1100001</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into int_keyed in 537822 ms</t>
+  </si>
+  <si>
+    <t>200000  rows inserted</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_keyed in 159672 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into uuid_keyed in 81376 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into serial_keyed in 164896 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into hash_keyed in 141297 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into int_keyed in 362774 ms</t>
+  </si>
+  <si>
+    <t>sleeping for  120000</t>
+  </si>
+  <si>
+    <t>inserting into  seq_keyed</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_keyed in 418209 ms</t>
+  </si>
+  <si>
+    <t>inserting into  seq_cached</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_cached in 149168 ms</t>
+  </si>
+  <si>
+    <t>inserting into  uuid_keyed</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into uuid_keyed in 104233 ms</t>
+  </si>
+  <si>
+    <t>inserting into  serial_keyed</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into serial_keyed in 971844 ms</t>
+  </si>
+  <si>
+    <t>inserting into  hash_keyed</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into hash_keyed in 136359 ms</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Sequence (no cache)</t>
+  </si>
+  <si>
+    <t>Sequence (cache 1000)</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>HASH sharded</t>
   </si>
 </sst>
 </file>
@@ -110,6 +273,2816 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sequential PK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequential PK sequence generated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UUID PK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Serial PK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sequential PK hash sharded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>338670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2317419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5988-4941-8572-6B45EEEC1CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="89214816"/>
+        <c:axId val="89282320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89214816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89282320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89282320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89214816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sequential PK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequential PK sequence generated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UUID PK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Serial PK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sequential PK hash sharded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>338670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2317419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48F6-9B4A-ADF6-B667D8C0969E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sequential PK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequential PK sequence generated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UUID PK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Serial PK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sequential PK hash sharded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>368282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2726765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>337176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>357506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>347354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48F6-9B4A-ADF6-B667D8C0969E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="87122096"/>
+        <c:axId val="90138976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="87122096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90138976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90138976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87122096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sequence (no cache)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sequence (cache 1000)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UUID</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SERIAL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HASH sharded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>418209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>971844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DF2-EE43-8BB4-02A6A9C581AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1886416991"/>
+        <c:axId val="1886418639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1886416991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886418639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1886418639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886416991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D15E041-FAB7-1A4F-B642-7F4CF594B1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264D55AC-43E5-BA41-95C1-02C9A20AC458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224636</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>192042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>744382</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57554</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB488A72-2110-ED4A-912E-2E93AF5C1A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,55 +3382,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49BBDB6-73BC-D541-A5AF-D37C4B6AADFE}">
-  <dimension ref="D8:D15"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13:N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>338670</v>
+      </c>
+      <c r="C2">
+        <v>368282</v>
+      </c>
+      <c r="D2">
+        <v>355547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2317419</v>
+      </c>
+      <c r="C3">
+        <v>2726765</v>
+      </c>
+      <c r="D3">
+        <v>2372615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>316857</v>
+      </c>
+      <c r="C4">
+        <v>337176</v>
+      </c>
+      <c r="D4">
+        <v>334376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>329520</v>
+      </c>
+      <c r="C5">
+        <v>357506</v>
+      </c>
+      <c r="D5">
+        <v>359157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>327513</v>
+      </c>
+      <c r="C6">
+        <v>347354</v>
+      </c>
+      <c r="D6">
+        <v>341505</v>
+      </c>
+      <c r="E6">
+        <f>B6/B2</f>
+        <v>0.96705642660997426</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:G6" si="0">C6/C2</f>
+        <v>0.94317398080818504</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.96050592467381246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>7</v>
       </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>147456</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="N30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="N32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>114688</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N47" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD227CF2-9A97-F44B-B6E8-526B86AE9B4F}">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>418209</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>149158</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>104233</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>971844</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>136359</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/manuscript/Ch05 Database Design/Examples/primaryKeyTests.xlsx
+++ b/manuscript/Ch05 Database Design/Examples/primaryKeyTests.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4760335bb1ba0970/CockroachDBTDG/cockroachDB-tdg/manuscript/Ch05 Database Design/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{C0A4050F-B501-E040-B2FC-6A5F28A6D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E80D5A16-5F08-9A45-A257-8E96C07DC10F}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{C0A4050F-B501-E040-B2FC-6A5F28A6D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9137FDD5-968E-7A46-AAEB-EFFC2011C261}"/>
   <bookViews>
-    <workbookView xWindow="30380" yWindow="920" windowWidth="32400" windowHeight="25900" activeTab="1" xr2:uid="{3B02EFF8-44A2-FC41-84BD-D5DFEED018AE}"/>
+    <workbookView xWindow="28040" yWindow="6480" windowWidth="32400" windowHeight="25900" activeTab="2" xr2:uid="{3B02EFF8-44A2-FC41-84BD-D5DFEED018AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
   <si>
     <t>1000000 rows inserted into seq_keyed in 2300880 ms</t>
   </si>
@@ -221,6 +222,87 @@
   </si>
   <si>
     <t>HASH sharded</t>
+  </si>
+  <si>
+    <t>inserting into  int_keyed</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into int_keyed in 228002 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_keyed in 390224 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_cached in 118232 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into uuid_keyed in 121528 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into serial_keyed in 709674 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into hash_keyed in 114358 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into int_keyed in 161988 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_keyed in 415803 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_cached in 532098 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into uuid_keyed in 130544 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into int_keyed in 98879 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_keyed in 342021 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_cached in 82402 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into uuid_keyed in 84399 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into serial_keyed in 215133 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into hash_keyed in 82397 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into int_keyed in 417953 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_keyed in 444098 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into seq_cached in 188413 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into uuid_keyed in 149170 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into serial_keyed in 528239 ms</t>
+  </si>
+  <si>
+    <t>100000 rows inserted into hash_keyed in 155709 ms</t>
+  </si>
+  <si>
+    <t>rows per second</t>
+  </si>
+  <si>
+    <t>Sequence generated</t>
+  </si>
+  <si>
+    <t>SERIAL generated</t>
+  </si>
+  <si>
+    <t>Ascending key hash Sharded</t>
   </si>
 </sst>
 </file>
@@ -1332,6 +1414,439 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>UUID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ascending key hash Sharded</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequence generated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SERIAL generated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>149170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>444098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>528239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5AC-D045-A0B4-8712B4BCA0E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="913933983"/>
+        <c:axId val="913935071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="913933983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Primary Key</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="913935071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="913935071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time to insert 100,000 rows (ms) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="913933983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1452,6 +1967,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -2463,6 +3018,511 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3065,6 +4125,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB488A72-2110-ED4A-912E-2E93AF5C1A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DAB61E-02A1-744F-A87A-4941BDB6A45A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3729,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD227CF2-9A97-F44B-B6E8-526B86AE9B4F}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3890,4 +4991,443 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2871D0-3C89-B145-8668-4BC5E7E005BE}">
+  <dimension ref="B1:J55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2">
+        <v>149170</v>
+      </c>
+      <c r="I2">
+        <f>10000/H2*1000</f>
+        <v>67.037608098143068</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3">
+        <v>155709</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="0">10000/H3*1000</f>
+        <v>64.222363511421946</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4">
+        <v>444098</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>22.517552432120837</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5">
+        <v>528239</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>18.930824872832183</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:H5">
+    <sortCondition ref="H2:H5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>